--- a/biology/Microbiologie/Streptomyces_xantholiticus/Streptomyces_xantholiticus.xlsx
+++ b/biology/Microbiologie/Streptomyces_xantholiticus/Streptomyces_xantholiticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Streptomyces xantholiticus est une espèce de la famille des Streptomycetaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La souche type de cette espèce a été isolée à partir d'un prélèvemeent de sol près de la ville de Kertch en Crimée (Ukraine)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La souche type de cette espèce a été isolée à partir d'un prélèvemeent de sol près de la ville de Kertch en Crimée (Ukraine).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Streptomyces xantholiticus sont des bactéries capables de former des spores[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Streptomyces xantholiticus sont des bactéries capables de former des spores.
 </t>
         </is>
       </c>
@@ -573,14 +589,50 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Streptomyces xantholiticus (Konev &amp; Tsyganov 1962) Pridham 1970[2]. La souche type LIA 1130/12[3]
-, de cette espèce, a été déposée dans des banques de cultures bactériennes sous les identifiants DSM 40244 et ATCC 27481[2].
-Streptomyces xantholiticus a pour synonyme[2] :
-Actinomyces xantholiticus Konev &amp; Tsyganov 1962
-Étymologie
-L'étymologie du nom spécifique de cette espèce est la suivante : xan.tho.li.ti.cus. adjectif masculin grec xanthos, jaune; N.L. masc. adj. lyticus, capable de perdre,capable de dissoudre; de l'adjectif masculin grec lytikos, dissoudre; N.L. masc. adj. xantholiticus, jaune et soluble, fait référence à la couleur jaune du mycélium végétatif et de la tendance de l'organisme à lyser quand il est maintenu sur certains milieux solides (xantholyticus serait probablement mieux) »[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Streptomyces xantholiticus (Konev &amp; Tsyganov 1962) Pridham 1970. La souche type LIA 1130/12
+, de cette espèce, a été déposée dans des banques de cultures bactériennes sous les identifiants DSM 40244 et ATCC 27481.
+Streptomyces xantholiticus a pour synonyme :
+Actinomyces xantholiticus Konev &amp; Tsyganov 1962</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Streptomyces_xantholiticus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Streptomyces_xantholiticus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom spécifique de cette espèce est la suivante : xan.tho.li.ti.cus. adjectif masculin grec xanthos, jaune; N.L. masc. adj. lyticus, capable de perdre,capable de dissoudre; de l'adjectif masculin grec lytikos, dissoudre; N.L. masc. adj. xantholiticus, jaune et soluble, fait référence à la couleur jaune du mycélium végétatif et de la tendance de l'organisme à lyser quand il est maintenu sur certains milieux solides (xantholyticus serait probablement mieux) »,.
 </t>
         </is>
       </c>
